--- a/01Other/Collection.xlsx
+++ b/01Other/Collection.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SystemError" sheetId="1" r:id="rId1"/>
     <sheet name="Idea" sheetId="2" r:id="rId2"/>
+    <sheet name="变量" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +290,118 @@
     <t>未开启Secondary Logon服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>shift+鼠标右键菜单--〉在此处打开命令窗口--〉进入当前路径下的CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl+shift+R--&gt;浏览器重新加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True在VB中是"-1"（二进制全是1）,而在C#中是"1";在C#处理vba中关于bool转int时需要注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql注入攻击--对特殊字符串没有应对措施，改变原有sql语句的作用，可能造成数据库中的数据遗失或泄露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量命名规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVN代码管理服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装（1、Git**.exe 2、TortoiseGit-2.2.0.0-64bit.msi）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSPM代码管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -329,12 +444,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -349,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -360,17 +487,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -681,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -715,16 +844,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
@@ -732,88 +861,88 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
       <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -821,61 +950,61 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
       <c r="E12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
       <c r="E13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
       <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
       <c r="E15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="10"/>
       <c r="E16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E17" t="s">
@@ -883,10 +1012,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" t="s">
         <v>34</v>
       </c>
@@ -917,7 +1046,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -926,11 +1055,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -983,4 +1112,207 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01Other/Collection.xlsx
+++ b/01Other/Collection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SystemError" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="变量" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +403,92 @@
     <t>TSPM代码管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>总用电量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民用电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业用电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日用品指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜、水果、肉类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕃茄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食用油</t>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油价</t>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -464,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -472,11 +559,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -489,6 +690,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,6 +718,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,16 +1074,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
@@ -861,88 +1091,88 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
       <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
+      <c r="A11" s="12">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
@@ -950,61 +1180,61 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16"/>
       <c r="E12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16"/>
       <c r="E13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
       <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="16"/>
       <c r="E15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16"/>
       <c r="E16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="6">
+      <c r="A17" s="12">
         <v>3</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E17" t="s">
@@ -1012,10 +1242,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" t="s">
         <v>34</v>
       </c>
@@ -1055,11 +1285,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -1282,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1315,4 +1545,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="6"/>
+      <c r="C3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="19"/>
+    </row>
+    <row r="4" spans="2:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B5" s="20">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B6" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>